--- a/public/templates/Add_job_template.xlsx
+++ b/public/templates/Add_job_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83ea148c542f6f94/001.GTN Work/Sustainability Development Agency/System Development/Collab Hub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D68BDB-36AA-40F0-B298-241FC3FD4C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C7287-5A53-4FE4-9F06-FCEA6DE6437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{37B80D02-0E0B-4C0D-B711-F540245AC398}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Site Code</t>
   </si>
@@ -69,9 +69,6 @@
     <t>ABC1234</t>
   </si>
   <si>
-    <t>Dismantle Ultraman</t>
-  </si>
-  <si>
     <t>88_True New site Project</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>ABC3210</t>
   </si>
   <si>
-    <t>Install Ironman</t>
-  </si>
-  <si>
     <t>92_Material Supply for True</t>
   </si>
   <si>
@@ -154,6 +148,33 @@
   </si>
   <si>
     <t>25_RAN 850 MHz Dismantle</t>
+  </si>
+  <si>
+    <t>XYZ3212</t>
+  </si>
+  <si>
+    <t>พัดลมดับ</t>
+  </si>
+  <si>
+    <t>พัดลมช็อต</t>
+  </si>
+  <si>
+    <t>พัดลมไม่หมุน</t>
+  </si>
+  <si>
+    <t>พัดลมหาย</t>
+  </si>
+  <si>
+    <t>AYY2122</t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>ABC8</t>
+  </si>
+  <si>
+    <t>AYY9</t>
   </si>
 </sst>
 </file>
@@ -163,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,26 +568,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9C084E-903C-476F-9466-9BA93FE49711}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,18 +616,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>123456</v>
@@ -618,18 +642,21 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -641,9 +668,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30500</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -673,16 +744,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4733F7-F09B-44E0-8ABA-CD148F37169F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -690,125 +761,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mIqxf9L1y9QB20s8fNyrA9r7ZtbwVQKfBM8+4GQyzxiUHVaOb6vof9rWx4h5imV+BU26bVlW6MWMYqTr47UWhw==" saltValue="aREEq2RdiV0d/PxI/D2gdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>